--- a/BackTest/2020-01-25 BackTest DAD.xlsx
+++ b/BackTest/2020-01-25 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-122587.047780952</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-122591.227780952</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-122594.647780952</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-122123.602780952</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-131288.770280952</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-131899.442580952</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-151142.835180952</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-148601.158280952</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,20 +2730,13 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>165.4</v>
-      </c>
-      <c r="K71" t="n">
-        <v>165.4</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2982,1820 +2763,1549 @@
       <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>167</v>
+      </c>
+      <c r="C73" t="n">
+        <v>167</v>
+      </c>
+      <c r="D73" t="n">
+        <v>167</v>
+      </c>
+      <c r="E73" t="n">
+        <v>167</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1304.272</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-156010.229980952</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>166</v>
       </c>
-      <c r="K72" t="n">
-        <v>165.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="C74" t="n">
+        <v>166</v>
+      </c>
+      <c r="D74" t="n">
+        <v>166</v>
+      </c>
+      <c r="E74" t="n">
+        <v>166</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1909.513</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-157919.742980952</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>165</v>
+      </c>
+      <c r="C75" t="n">
+        <v>165</v>
+      </c>
+      <c r="D75" t="n">
+        <v>165</v>
+      </c>
+      <c r="E75" t="n">
+        <v>165</v>
+      </c>
+      <c r="F75" t="n">
+        <v>587.5011</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-158507.244080952</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="C76" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1174.4963</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-159681.740380952</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>25841.616</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-185523.356380952</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="C78" t="n">
+        <v>163</v>
+      </c>
+      <c r="D78" t="n">
+        <v>163</v>
+      </c>
+      <c r="E78" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3164.1213</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-182359.235080952</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-182356.235080952</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>163</v>
+      </c>
+      <c r="F80" t="n">
+        <v>568.6636</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-182924.898680952</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>163</v>
+      </c>
+      <c r="D81" t="n">
+        <v>163</v>
+      </c>
+      <c r="E81" t="n">
+        <v>163</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1604.532</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-184529.430680952</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>163</v>
+      </c>
+      <c r="C82" t="n">
+        <v>163</v>
+      </c>
+      <c r="D82" t="n">
+        <v>163</v>
+      </c>
+      <c r="E82" t="n">
+        <v>163</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1223.0579</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-184529.430680952</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>165</v>
+      </c>
+      <c r="C83" t="n">
+        <v>165</v>
+      </c>
+      <c r="D83" t="n">
+        <v>165</v>
+      </c>
+      <c r="E83" t="n">
+        <v>165</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-184525.430680952</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>163</v>
+      </c>
+      <c r="J83" t="n">
+        <v>163</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>164</v>
+      </c>
+      <c r="C84" t="n">
+        <v>164</v>
+      </c>
+      <c r="D84" t="n">
+        <v>164</v>
+      </c>
+      <c r="E84" t="n">
+        <v>164</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-184529.430680952</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>163</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>167</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C85" t="n">
+        <v>164</v>
+      </c>
+      <c r="D85" t="n">
         <v>167</v>
       </c>
-      <c r="D73" t="n">
-        <v>167</v>
-      </c>
-      <c r="E73" t="n">
-        <v>167</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1304.272</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-156010.229980952</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>165.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="E85" t="n">
+        <v>164</v>
+      </c>
+      <c r="F85" t="n">
+        <v>145.5908</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-184529.430680952</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>163</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>164</v>
+      </c>
+      <c r="C86" t="n">
         <v>166</v>
       </c>
-      <c r="C74" t="n">
-        <v>166</v>
-      </c>
-      <c r="D74" t="n">
-        <v>166</v>
-      </c>
-      <c r="E74" t="n">
-        <v>166</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1909.513</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-157919.742980952</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>165</v>
-      </c>
-      <c r="C75" t="n">
-        <v>165</v>
-      </c>
-      <c r="D75" t="n">
-        <v>165</v>
-      </c>
-      <c r="E75" t="n">
-        <v>165</v>
-      </c>
-      <c r="F75" t="n">
-        <v>587.5011</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-158507.244080952</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>166</v>
-      </c>
-      <c r="K75" t="n">
-        <v>166</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="C76" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="E76" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>1174.4963</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-159681.740380952</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>166</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>163.1</v>
-      </c>
-      <c r="C77" t="n">
-        <v>162.7</v>
-      </c>
-      <c r="D77" t="n">
-        <v>163.1</v>
-      </c>
-      <c r="E77" t="n">
-        <v>162.7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>25841.616</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-185523.356380952</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="K77" t="n">
-        <v>166</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="D86" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>164</v>
+      </c>
+      <c r="F86" t="n">
+        <v>21746.8868</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-162782.543880952</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+      <c r="I86" t="n">
+        <v>164</v>
+      </c>
+      <c r="J86" t="n">
+        <v>163</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>162.7</v>
-      </c>
-      <c r="C78" t="n">
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="E87" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-162778.543880952</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
         <v>163</v>
       </c>
-      <c r="D78" t="n">
-        <v>163</v>
-      </c>
-      <c r="E78" t="n">
-        <v>162.7</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3164.1213</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-182359.235080952</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>166</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>3</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-182356.235080952</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="C88" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="D88" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>86.1442</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-162778.543880952</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
         <v>163</v>
       </c>
-      <c r="K79" t="n">
-        <v>166</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>163.1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>163.1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>163.1</v>
-      </c>
-      <c r="E80" t="n">
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>170</v>
+      </c>
+      <c r="C89" t="n">
+        <v>173</v>
+      </c>
+      <c r="D89" t="n">
+        <v>173</v>
+      </c>
+      <c r="E89" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2447.3459</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-160331.197980952</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
         <v>163</v>
       </c>
-      <c r="F80" t="n">
-        <v>568.6636</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-182924.898680952</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>166</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>553</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-160884.197980952</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
         <v>163</v>
       </c>
-      <c r="C81" t="n">
-        <v>163</v>
-      </c>
-      <c r="D81" t="n">
-        <v>163</v>
-      </c>
-      <c r="E81" t="n">
-        <v>163</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1604.532</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-184529.430680952</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>163.1</v>
-      </c>
-      <c r="K81" t="n">
-        <v>166</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>172.6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>172.6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>587</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-160297.197980952</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
         <v>163</v>
       </c>
-      <c r="C82" t="n">
-        <v>163</v>
-      </c>
-      <c r="D82" t="n">
-        <v>163</v>
-      </c>
-      <c r="E82" t="n">
-        <v>163</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1223.0579</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-184529.430680952</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>163</v>
-      </c>
-      <c r="K82" t="n">
-        <v>166</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>165</v>
-      </c>
-      <c r="C83" t="n">
-        <v>165</v>
-      </c>
-      <c r="D83" t="n">
-        <v>165</v>
-      </c>
-      <c r="E83" t="n">
-        <v>165</v>
-      </c>
-      <c r="F83" t="n">
-        <v>4</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-184525.430680952</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>169.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>7907.8928</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-168205.090780952</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
         <v>163</v>
       </c>
-      <c r="K83" t="n">
-        <v>166</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>164</v>
-      </c>
-      <c r="C84" t="n">
-        <v>164</v>
-      </c>
-      <c r="D84" t="n">
-        <v>164</v>
-      </c>
-      <c r="E84" t="n">
-        <v>164</v>
-      </c>
-      <c r="F84" t="n">
-        <v>4</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-184529.430680952</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>165</v>
-      </c>
-      <c r="K84" t="n">
-        <v>166</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>168</v>
+      </c>
+      <c r="C93" t="n">
+        <v>168</v>
+      </c>
+      <c r="D93" t="n">
+        <v>168</v>
+      </c>
+      <c r="E93" t="n">
+        <v>168</v>
+      </c>
+      <c r="F93" t="n">
+        <v>627.8816</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-168832.972380952</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>163</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>167</v>
-      </c>
-      <c r="C85" t="n">
-        <v>164</v>
-      </c>
-      <c r="D85" t="n">
-        <v>167</v>
-      </c>
-      <c r="E85" t="n">
-        <v>164</v>
-      </c>
-      <c r="F85" t="n">
-        <v>145.5908</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-184529.430680952</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>164</v>
-      </c>
-      <c r="K85" t="n">
-        <v>166</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>172</v>
+      </c>
+      <c r="C94" t="n">
+        <v>172</v>
+      </c>
+      <c r="D94" t="n">
+        <v>172</v>
+      </c>
+      <c r="E94" t="n">
+        <v>172</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-168829.972380952</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>168</v>
+      </c>
+      <c r="J94" t="n">
+        <v>163</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>164</v>
-      </c>
-      <c r="C86" t="n">
-        <v>166</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
         <v>166.8</v>
       </c>
-      <c r="E86" t="n">
-        <v>164</v>
-      </c>
-      <c r="F86" t="n">
-        <v>21746.8868</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-162782.543880952</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>164</v>
-      </c>
-      <c r="K86" t="n">
-        <v>166</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="C95" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>13965.4414</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-182795.413780952</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>163</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="C87" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="D87" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="E87" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-162778.543880952</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>166</v>
-      </c>
-      <c r="K87" t="n">
-        <v>166</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-182792.413780952</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>163</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>166</v>
+      </c>
+      <c r="C97" t="n">
         <v>169.4</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D97" t="n">
         <v>169.4</v>
       </c>
-      <c r="D88" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="E88" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="F88" t="n">
-        <v>86.1442</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-162778.543880952</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
+      <c r="E97" t="n">
         <v>166</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="F97" t="n">
+        <v>28</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-182764.413780952</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>163</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.034263803680982</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>166</v>
+      </c>
+      <c r="C98" t="n">
+        <v>166</v>
+      </c>
+      <c r="D98" t="n">
+        <v>166</v>
+      </c>
+      <c r="E98" t="n">
+        <v>166</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3605.4442</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-186369.857980952</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>166</v>
+      </c>
+      <c r="D99" t="n">
+        <v>166</v>
+      </c>
+      <c r="E99" t="n">
+        <v>164</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13969.4414</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-186369.857980952</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>166</v>
+      </c>
+      <c r="D100" t="n">
+        <v>166</v>
+      </c>
+      <c r="E100" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>188.9824</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-186369.857980952</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>9</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-186378.857980952</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>166</v>
+      </c>
+      <c r="E102" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>994.5317</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-185384.326280952</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="C103" t="n">
+        <v>166</v>
+      </c>
+      <c r="D103" t="n">
+        <v>166</v>
+      </c>
+      <c r="E103" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1267.7348</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-184116.591480952</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="C104" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="F104" t="n">
+        <v>503.049</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-183613.542480952</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>170</v>
-      </c>
-      <c r="C89" t="n">
-        <v>173</v>
-      </c>
-      <c r="D89" t="n">
-        <v>173</v>
-      </c>
-      <c r="E89" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2447.3459</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-160331.197980952</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
         <v>166</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="C105" t="n">
+        <v>166</v>
+      </c>
+      <c r="D105" t="n">
+        <v>166</v>
+      </c>
+      <c r="E105" t="n">
+        <v>166</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-183618.542480952</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="C90" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="D90" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>553</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-160884.197980952</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
         <v>166</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="C106" t="n">
+        <v>166</v>
+      </c>
+      <c r="D106" t="n">
+        <v>166</v>
+      </c>
+      <c r="E106" t="n">
+        <v>166</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-183618.542480952</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>169.6</v>
-      </c>
-      <c r="C91" t="n">
-        <v>172.6</v>
-      </c>
-      <c r="D91" t="n">
-        <v>172.6</v>
-      </c>
-      <c r="E91" t="n">
-        <v>169.6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>587</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-160297.197980952</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="E107" t="n">
         <v>166</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="F107" t="n">
+        <v>5374.3081</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-178244.234380952</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>169.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>169.1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7907.8928</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-168205.090780952</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
         <v>166</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="C108" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3348.4824</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-181592.716780952</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>168</v>
-      </c>
-      <c r="C93" t="n">
-        <v>168</v>
-      </c>
-      <c r="D93" t="n">
-        <v>168</v>
-      </c>
-      <c r="E93" t="n">
-        <v>168</v>
-      </c>
-      <c r="F93" t="n">
-        <v>627.8816</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-168832.972380952</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>166</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="C109" t="n">
+        <v>166</v>
+      </c>
+      <c r="D109" t="n">
+        <v>166</v>
+      </c>
+      <c r="E109" t="n">
+        <v>166</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-181588.716780952</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>172</v>
-      </c>
-      <c r="C94" t="n">
-        <v>172</v>
-      </c>
-      <c r="D94" t="n">
-        <v>172</v>
-      </c>
-      <c r="E94" t="n">
-        <v>172</v>
-      </c>
-      <c r="F94" t="n">
-        <v>3</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-168829.972380952</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="E110" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-181593.716780952</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
         <v>166</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>166.8</v>
-      </c>
-      <c r="C95" t="n">
-        <v>162.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>166.8</v>
-      </c>
-      <c r="E95" t="n">
-        <v>162.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>13965.4414</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-182795.413780952</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>166</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="C111" t="n">
+        <v>166</v>
+      </c>
+      <c r="D111" t="n">
+        <v>166</v>
+      </c>
+      <c r="E111" t="n">
+        <v>166</v>
+      </c>
+      <c r="F111" t="n">
+        <v>35</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-181558.716780952</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="C112" t="n">
         <v>167.9</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D112" t="n">
         <v>167.9</v>
       </c>
-      <c r="D96" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="F96" t="n">
-        <v>3</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-182792.413780952</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
+      <c r="E112" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>678.2388</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-180880.477980952</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="n">
         <v>166</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>166</v>
-      </c>
-      <c r="C97" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="D97" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="E97" t="n">
-        <v>166</v>
-      </c>
-      <c r="F97" t="n">
-        <v>28</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-182764.413780952</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>166</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="C113" t="n">
+        <v>169</v>
+      </c>
+      <c r="D113" t="n">
+        <v>169</v>
+      </c>
+      <c r="E113" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2988.7156</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-177891.762380952</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>166</v>
-      </c>
-      <c r="C98" t="n">
-        <v>166</v>
-      </c>
-      <c r="D98" t="n">
-        <v>166</v>
-      </c>
-      <c r="E98" t="n">
-        <v>166</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3605.4442</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-186369.857980952</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>166</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>765.1563</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-178656.918680952</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>164.1</v>
-      </c>
-      <c r="C99" t="n">
-        <v>166</v>
-      </c>
-      <c r="D99" t="n">
-        <v>166</v>
-      </c>
-      <c r="E99" t="n">
-        <v>164</v>
-      </c>
-      <c r="F99" t="n">
-        <v>13969.4414</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-186369.857980952</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>166</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>164.1</v>
-      </c>
-      <c r="C100" t="n">
-        <v>166</v>
-      </c>
-      <c r="D100" t="n">
-        <v>166</v>
-      </c>
-      <c r="E100" t="n">
-        <v>164.1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>188.9824</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-186369.857980952</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>166</v>
-      </c>
-      <c r="K100" t="n">
-        <v>166</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>165.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>165.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="F101" t="n">
-        <v>9</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-186378.857980952</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>166</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>164.3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="D102" t="n">
-        <v>166</v>
-      </c>
-      <c r="E102" t="n">
-        <v>164.3</v>
-      </c>
-      <c r="F102" t="n">
-        <v>994.5317</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-185384.326280952</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>166</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="C103" t="n">
-        <v>166</v>
-      </c>
-      <c r="D103" t="n">
-        <v>166</v>
-      </c>
-      <c r="E103" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1267.7348</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-184116.591480952</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="K103" t="n">
-        <v>166</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="C104" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="F104" t="n">
-        <v>503.049</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-183613.542480952</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>166</v>
-      </c>
-      <c r="K104" t="n">
-        <v>166</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>166</v>
-      </c>
-      <c r="C105" t="n">
-        <v>166</v>
-      </c>
-      <c r="D105" t="n">
-        <v>166</v>
-      </c>
-      <c r="E105" t="n">
-        <v>166</v>
-      </c>
-      <c r="F105" t="n">
-        <v>5</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-183618.542480952</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="K105" t="n">
-        <v>166</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>166</v>
-      </c>
-      <c r="C106" t="n">
-        <v>166</v>
-      </c>
-      <c r="D106" t="n">
-        <v>166</v>
-      </c>
-      <c r="E106" t="n">
-        <v>166</v>
-      </c>
-      <c r="F106" t="n">
-        <v>5</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-183618.542480952</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>166</v>
-      </c>
-      <c r="K106" t="n">
-        <v>166</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="E107" t="n">
-        <v>166</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5374.3081</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-178244.234380952</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>166</v>
-      </c>
-      <c r="K107" t="n">
-        <v>166</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>166</v>
-      </c>
-      <c r="C108" t="n">
-        <v>164.4</v>
-      </c>
-      <c r="D108" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>164.4</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3348.4824</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-181592.716780952</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>166</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>166</v>
-      </c>
-      <c r="C109" t="n">
-        <v>166</v>
-      </c>
-      <c r="D109" t="n">
-        <v>166</v>
-      </c>
-      <c r="E109" t="n">
-        <v>166</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-181588.716780952</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>166</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-181593.716780952</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>166</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>166</v>
-      </c>
-      <c r="C111" t="n">
-        <v>166</v>
-      </c>
-      <c r="D111" t="n">
-        <v>166</v>
-      </c>
-      <c r="E111" t="n">
-        <v>166</v>
-      </c>
-      <c r="F111" t="n">
-        <v>35</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-181558.716780952</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="K111" t="n">
-        <v>166</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="D112" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="E112" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="F112" t="n">
-        <v>678.2388</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-180880.477980952</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>166</v>
-      </c>
-      <c r="K112" t="n">
-        <v>166</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="C113" t="n">
-        <v>169</v>
-      </c>
-      <c r="D113" t="n">
-        <v>169</v>
-      </c>
-      <c r="E113" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2988.7156</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-177891.762380952</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>166</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>765.1563</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-178656.918680952</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>169</v>
-      </c>
-      <c r="K114" t="n">
-        <v>166</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DAD.xlsx
+++ b/BackTest/2020-01-25 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-122587.047780952</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-122587.047780952</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-122582.047780952</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-122591.227780952</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-122591.227780952</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-122594.647780952</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-122123.602780952</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-131288.770280952</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-131899.442580952</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-151142.835180952</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-148601.158280952</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-159047.099480952</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-157314.501980952</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-156010.229980952</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-157919.742980952</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-158507.244080952</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3091,10 +3091,14 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>163</v>
+      </c>
+      <c r="J82" t="n">
+        <v>163</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3124,7 +3128,7 @@
         <v>-184525.430680952</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>163</v>
@@ -3132,7 +3136,11 @@
       <c r="J83" t="n">
         <v>163</v>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,9 +3169,11 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>165</v>
+      </c>
       <c r="J84" t="n">
         <v>163</v>
       </c>
@@ -3200,15 +3210,17 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>164</v>
+      </c>
       <c r="J85" t="n">
         <v>163</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3239,7 +3251,7 @@
         <v>-162782.543880952</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>164</v>
@@ -3249,7 +3261,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3553,11 +3565,9 @@
         <v>-168829.972380952</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>163</v>
       </c>
@@ -3672,7 +3682,7 @@
         <v>-182764.413780952</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
@@ -3680,11 +3690,11 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.034263803680982</v>
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
     </row>
@@ -3714,8 +3724,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>163</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +3763,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>163</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3780,8 +3802,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>163</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3813,8 +3841,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>163</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3843,11 +3877,19 @@
         <v>-185384.326280952</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>163</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3876,15 +3918,17 @@
         <v>-184116.591480952</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>165.9</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>163</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3915,10 +3959,14 @@
         <v>-183613.542480952</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>166</v>
+      </c>
+      <c r="J104" t="n">
+        <v>163</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,10 +4000,14 @@
         <v>-183618.542480952</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="J105" t="n">
+        <v>163</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,10 +4041,14 @@
         <v>-183618.542480952</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>166</v>
+      </c>
+      <c r="J106" t="n">
+        <v>163</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,7 +4085,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>163</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4066,7 +4124,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>163</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,7 +4163,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>163</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,12 +4199,12 @@
         <v>-181593.716780952</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>166</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>163</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,12 +4238,14 @@
         <v>-181558.716780952</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>164.5</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>163</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,12 +4279,14 @@
         <v>-180880.477980952</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>166</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>163</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,10 +4320,14 @@
         <v>-177891.762380952</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="J113" t="n">
+        <v>163</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,7 +4364,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>163</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,6 +4378,6 @@
       <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DAD.xlsx
+++ b/BackTest/2020-01-25 BackTest DAD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-122587.047780952</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-122587.047780952</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-122582.047780952</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-122591.227780952</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-122591.227780952</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-131038.615280952</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-142221.700180952</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-144289.794780952</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-144044.000580952</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-144016.682480952</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-144079.508580952</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-147579.508580952</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-147413.364380952</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-148209.118180952</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-154741.678280952</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2827,10 +2827,14 @@
         <v>-157919.742980952</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>167</v>
+      </c>
+      <c r="J74" t="n">
+        <v>167</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2860,11 +2864,19 @@
         <v>-158507.244080952</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>166</v>
+      </c>
+      <c r="J75" t="n">
+        <v>167</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2908,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>167</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2992,10 +3010,14 @@
         <v>-182356.235080952</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>163</v>
+      </c>
+      <c r="J79" t="n">
+        <v>163</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3028,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>163</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3089,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>163</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3099,7 +3133,11 @@
       <c r="J82" t="n">
         <v>163</v>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3138,7 +3176,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3169,17 +3207,15 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>163</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3220,7 +3256,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3251,11 +3287,9 @@
         <v>-162782.543880952</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>163</v>
       </c>
@@ -3331,7 +3365,7 @@
         <v>-162778.543880952</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
@@ -3877,11 +3911,9 @@
         <v>-185384.326280952</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>165.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>163</v>
       </c>
@@ -3918,11 +3950,9 @@
         <v>-184116.591480952</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>165.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>163</v>
       </c>
@@ -3959,11 +3989,9 @@
         <v>-183613.542480952</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>163</v>
       </c>
@@ -4000,11 +4028,9 @@
         <v>-183618.542480952</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>167.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>163</v>
       </c>
@@ -4041,11 +4067,9 @@
         <v>-183618.542480952</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>163</v>
       </c>
@@ -4238,11 +4262,9 @@
         <v>-181558.716780952</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>164.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>163</v>
       </c>
@@ -4279,11 +4301,9 @@
         <v>-180880.477980952</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>163</v>
       </c>
@@ -4320,11 +4340,9 @@
         <v>-177891.762380952</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>167.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>163</v>
       </c>
@@ -4378,6 +4396,6 @@
       <c r="M114" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest DAD.xlsx
+++ b/BackTest/2020-01-25 BackTest DAD.xlsx
@@ -1045,7 +1045,7 @@
         <v>-131038.615280952</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-136221.700180952</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-142221.700180952</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-144075.526780952</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-144289.794780952</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-144044.000580952</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-144016.682480952</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-144079.508580952</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-147579.508580952</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-147413.364380952</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-148209.118180952</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-154741.678280952</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-148601.158280952</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-149701.268280952</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2827,14 +2827,10 @@
         <v>-157919.742980952</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>167</v>
-      </c>
-      <c r="J74" t="n">
-        <v>167</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2864,19 +2860,11 @@
         <v>-158507.244080952</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>166</v>
-      </c>
-      <c r="J75" t="n">
-        <v>167</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2908,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>167</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3010,14 +2992,10 @@
         <v>-182356.235080952</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>163</v>
-      </c>
-      <c r="J79" t="n">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3050,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>163</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3089,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>163</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3125,19 +3091,11 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>163</v>
-      </c>
-      <c r="J82" t="n">
-        <v>163</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3174,11 +3132,7 @@
       <c r="J83" t="n">
         <v>163</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3207,15 +3161,17 @@
         <v>-184529.430680952</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>165</v>
+      </c>
       <c r="J84" t="n">
         <v>163</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3256,7 +3212,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3287,15 +3243,17 @@
         <v>-162782.543880952</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>164</v>
+      </c>
       <c r="J86" t="n">
         <v>163</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3365,7 +3323,7 @@
         <v>-162778.543880952</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
@@ -4145,9 +4103,11 @@
         <v>-181592.716780952</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>166.1</v>
+      </c>
       <c r="J108" t="n">
         <v>163</v>
       </c>
@@ -4184,9 +4144,11 @@
         <v>-181588.716780952</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>164.4</v>
+      </c>
       <c r="J109" t="n">
         <v>163</v>
       </c>
@@ -4223,9 +4185,11 @@
         <v>-181593.716780952</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>166</v>
+      </c>
       <c r="J110" t="n">
         <v>163</v>
       </c>
@@ -4262,9 +4226,11 @@
         <v>-181558.716780952</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>164.5</v>
+      </c>
       <c r="J111" t="n">
         <v>163</v>
       </c>
@@ -4301,9 +4267,11 @@
         <v>-180880.477980952</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>166</v>
+      </c>
       <c r="J112" t="n">
         <v>163</v>
       </c>
@@ -4340,9 +4308,11 @@
         <v>-177891.762380952</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>167.9</v>
+      </c>
       <c r="J113" t="n">
         <v>163</v>
       </c>

--- a/BackTest/2020-01-25 BackTest DAD.xlsx
+++ b/BackTest/2020-01-25 BackTest DAD.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>907.7781</v>
       </c>
       <c r="G2" t="n">
-        <v>-122587.047780952</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>224.4505</v>
       </c>
       <c r="G3" t="n">
-        <v>-122587.047780952</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>-122582.047780952</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>9.18</v>
       </c>
       <c r="G5" t="n">
-        <v>-122591.227780952</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>8.951700000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-122591.227780952</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>-122588.827780952</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>8.82</v>
       </c>
       <c r="G8" t="n">
-        <v>-122597.647780952</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>-122594.647780952</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>41.3405</v>
       </c>
       <c r="G10" t="n">
-        <v>-122594.647780952</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>58.6595</v>
       </c>
       <c r="G11" t="n">
-        <v>-122594.647780952</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>7.045</v>
       </c>
       <c r="G12" t="n">
-        <v>-122587.602780952</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>464</v>
       </c>
       <c r="G13" t="n">
-        <v>-122123.602780952</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>105.5059</v>
       </c>
       <c r="G14" t="n">
-        <v>-122229.108680952</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>56.4155</v>
       </c>
       <c r="G15" t="n">
-        <v>-122172.693180952</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>591.3239</v>
       </c>
       <c r="G16" t="n">
-        <v>-122764.017080952</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>8524.753199999999</v>
       </c>
       <c r="G17" t="n">
-        <v>-131288.770280952</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>728.615</v>
       </c>
       <c r="G18" t="n">
-        <v>-130560.155280952</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>-130540.155280952</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>498.46</v>
       </c>
       <c r="G20" t="n">
-        <v>-131038.615280952</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>325.93</v>
       </c>
       <c r="G21" t="n">
-        <v>-131038.615280952</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>895.5692</v>
       </c>
       <c r="G22" t="n">
-        <v>-131038.615280952</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2291.4552</v>
       </c>
       <c r="G23" t="n">
-        <v>-128747.160080952</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>242.6362</v>
       </c>
       <c r="G24" t="n">
-        <v>-128747.160080952</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>481.45</v>
       </c>
       <c r="G25" t="n">
-        <v>-128747.160080952</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>3152.2825</v>
       </c>
       <c r="G26" t="n">
-        <v>-131899.442580952</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>822.2576</v>
       </c>
       <c r="G27" t="n">
-        <v>-132721.700180952</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3500</v>
       </c>
       <c r="G28" t="n">
-        <v>-136221.700180952</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>173.4448</v>
       </c>
       <c r="G29" t="n">
-        <v>-136221.700180952</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>6000</v>
       </c>
       <c r="G30" t="n">
-        <v>-142221.700180952</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>41.2183</v>
       </c>
       <c r="G31" t="n">
-        <v>-142180.481880952</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1895.0449</v>
       </c>
       <c r="G32" t="n">
-        <v>-144075.526780952</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>776.2639</v>
       </c>
       <c r="G33" t="n">
-        <v>-144075.526780952</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>-144078.526780952</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>211.268</v>
       </c>
       <c r="G35" t="n">
-        <v>-144289.794780952</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>245.7942</v>
       </c>
       <c r="G36" t="n">
-        <v>-144044.000580952</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>27.3181</v>
       </c>
       <c r="G37" t="n">
-        <v>-144016.682480952</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>62.8261</v>
       </c>
       <c r="G38" t="n">
-        <v>-144079.508580952</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3500</v>
       </c>
       <c r="G39" t="n">
-        <v>-147579.508580952</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>76</v>
       </c>
       <c r="G40" t="n">
-        <v>-147503.508580952</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>90.1442</v>
       </c>
       <c r="G41" t="n">
-        <v>-147413.364380952</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>174.2058</v>
       </c>
       <c r="G42" t="n">
-        <v>-147587.570180952</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>662.8523</v>
       </c>
       <c r="G43" t="n">
-        <v>-147587.570180952</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>254.7904</v>
       </c>
       <c r="G44" t="n">
-        <v>-147332.779780952</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>120</v>
       </c>
       <c r="G45" t="n">
-        <v>-147212.779780952</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1476.615</v>
       </c>
       <c r="G46" t="n">
-        <v>-147212.779780952</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>10465.7406</v>
       </c>
       <c r="G47" t="n">
-        <v>-147212.779780952</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2496.3384</v>
       </c>
       <c r="G48" t="n">
-        <v>-149709.118180952</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1500</v>
       </c>
       <c r="G49" t="n">
-        <v>-148209.118180952</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>6532.5601</v>
       </c>
       <c r="G50" t="n">
-        <v>-154741.678280952</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1300</v>
       </c>
       <c r="G51" t="n">
-        <v>-154741.678280952</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>46.9204</v>
       </c>
       <c r="G52" t="n">
-        <v>-154694.757880952</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3651.7271</v>
       </c>
       <c r="G53" t="n">
-        <v>-151043.030780952</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>605.1968000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>-151648.2275809521</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>21.2483</v>
       </c>
       <c r="G55" t="n">
-        <v>-151626.979280952</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>295.2381</v>
       </c>
       <c r="G56" t="n">
-        <v>-151922.217380952</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2238.5235</v>
       </c>
       <c r="G57" t="n">
-        <v>-151922.217380952</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>786.2002</v>
       </c>
       <c r="G58" t="n">
-        <v>-152708.417580952</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1565.5824</v>
       </c>
       <c r="G59" t="n">
-        <v>-151142.835180952</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>3860.442</v>
       </c>
       <c r="G60" t="n">
-        <v>-151142.835180952</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>6.3172</v>
       </c>
       <c r="G61" t="n">
-        <v>-151142.835180952</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>799.1771</v>
       </c>
       <c r="G62" t="n">
-        <v>-150343.658080952</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>120.5291</v>
       </c>
       <c r="G63" t="n">
-        <v>-150223.128980952</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2352.386</v>
       </c>
       <c r="G64" t="n">
-        <v>-147870.742980952</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>730.4153</v>
       </c>
       <c r="G65" t="n">
-        <v>-148601.158280952</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1100.11</v>
       </c>
       <c r="G66" t="n">
-        <v>-149701.268280952</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>6557.5354</v>
       </c>
       <c r="G67" t="n">
-        <v>-149701.268280952</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>616.5356</v>
       </c>
       <c r="G68" t="n">
-        <v>-150317.803880952</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>7989.9497</v>
       </c>
       <c r="G69" t="n">
-        <v>-158307.753580952</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>1950.5265</v>
       </c>
       <c r="G70" t="n">
-        <v>-160258.280080952</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1211.1806</v>
       </c>
       <c r="G71" t="n">
-        <v>-159047.099480952</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1732.5975</v>
       </c>
       <c r="G72" t="n">
-        <v>-157314.501980952</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1304.272</v>
       </c>
       <c r="G73" t="n">
-        <v>-156010.229980952</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1909.513</v>
       </c>
       <c r="G74" t="n">
-        <v>-157919.742980952</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>587.5011</v>
       </c>
       <c r="G75" t="n">
-        <v>-158507.244080952</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1174.4963</v>
       </c>
       <c r="G76" t="n">
-        <v>-159681.740380952</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>25841.616</v>
       </c>
       <c r="G77" t="n">
-        <v>-185523.356380952</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>3164.1213</v>
       </c>
       <c r="G78" t="n">
-        <v>-182359.235080952</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>-182356.235080952</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>568.6636</v>
       </c>
       <c r="G80" t="n">
-        <v>-182924.898680952</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1604.532</v>
       </c>
       <c r="G81" t="n">
-        <v>-184529.430680952</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1223.0579</v>
       </c>
       <c r="G82" t="n">
-        <v>-184529.430680952</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,22 +2873,19 @@
         <v>4</v>
       </c>
       <c r="G83" t="n">
-        <v>-184525.430680952</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="I83" t="n">
         <v>163</v>
       </c>
-      <c r="J83" t="n">
-        <v>163</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3158,26 +2907,23 @@
         <v>4</v>
       </c>
       <c r="G84" t="n">
-        <v>-184529.430680952</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="I84" t="n">
-        <v>165</v>
-      </c>
-      <c r="J84" t="n">
         <v>163</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3199,26 +2945,23 @@
         <v>145.5908</v>
       </c>
       <c r="G85" t="n">
-        <v>-184529.430680952</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="I85" t="n">
-        <v>164</v>
-      </c>
-      <c r="J85" t="n">
         <v>163</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3240,26 +2983,23 @@
         <v>21746.8868</v>
       </c>
       <c r="G86" t="n">
-        <v>-162782.543880952</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>164</v>
       </c>
       <c r="I86" t="n">
-        <v>164</v>
-      </c>
-      <c r="J86" t="n">
         <v>163</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3281,24 +3021,21 @@
         <v>4</v>
       </c>
       <c r="G87" t="n">
-        <v>-162778.543880952</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
         <v>163</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3320,24 +3057,21 @@
         <v>86.1442</v>
       </c>
       <c r="G88" t="n">
-        <v>-162778.543880952</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
         <v>163</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3359,24 +3093,21 @@
         <v>2447.3459</v>
       </c>
       <c r="G89" t="n">
-        <v>-160331.197980952</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
         <v>163</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3398,24 +3129,21 @@
         <v>553</v>
       </c>
       <c r="G90" t="n">
-        <v>-160884.197980952</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
         <v>163</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3437,24 +3165,21 @@
         <v>587</v>
       </c>
       <c r="G91" t="n">
-        <v>-160297.197980952</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
         <v>163</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3476,24 +3201,21 @@
         <v>7907.8928</v>
       </c>
       <c r="G92" t="n">
-        <v>-168205.090780952</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
         <v>163</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3515,24 +3237,21 @@
         <v>627.8816</v>
       </c>
       <c r="G93" t="n">
-        <v>-168832.972380952</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
         <v>163</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3554,24 +3273,21 @@
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>-168829.972380952</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
         <v>163</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3593,24 +3309,21 @@
         <v>13965.4414</v>
       </c>
       <c r="G95" t="n">
-        <v>-182795.413780952</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
         <v>163</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3632,24 +3345,21 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>-182792.413780952</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
         <v>163</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3671,24 +3381,21 @@
         <v>28</v>
       </c>
       <c r="G97" t="n">
-        <v>-182764.413780952</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
         <v>163</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1.034263803680982</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3710,24 +3417,15 @@
         <v>3605.4442</v>
       </c>
       <c r="G98" t="n">
-        <v>-186369.857980952</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>163</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3749,24 +3447,15 @@
         <v>13969.4414</v>
       </c>
       <c r="G99" t="n">
-        <v>-186369.857980952</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>163</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3788,24 +3477,15 @@
         <v>188.9824</v>
       </c>
       <c r="G100" t="n">
-        <v>-186369.857980952</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>163</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3827,24 +3507,15 @@
         <v>9</v>
       </c>
       <c r="G101" t="n">
-        <v>-186378.857980952</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>163</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3866,24 +3537,15 @@
         <v>994.5317</v>
       </c>
       <c r="G102" t="n">
-        <v>-185384.326280952</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>163</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3905,24 +3567,15 @@
         <v>1267.7348</v>
       </c>
       <c r="G103" t="n">
-        <v>-184116.591480952</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>163</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3944,24 +3597,15 @@
         <v>503.049</v>
       </c>
       <c r="G104" t="n">
-        <v>-183613.542480952</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>163</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3983,24 +3627,15 @@
         <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>-183618.542480952</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>163</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4022,24 +3657,15 @@
         <v>5</v>
       </c>
       <c r="G106" t="n">
-        <v>-183618.542480952</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>163</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4061,24 +3687,15 @@
         <v>5374.3081</v>
       </c>
       <c r="G107" t="n">
-        <v>-178244.234380952</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>163</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4100,26 +3717,15 @@
         <v>3348.4824</v>
       </c>
       <c r="G108" t="n">
-        <v>-181592.716780952</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>163</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4141,26 +3747,15 @@
         <v>4</v>
       </c>
       <c r="G109" t="n">
-        <v>-181588.716780952</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>164.4</v>
-      </c>
-      <c r="J109" t="n">
-        <v>163</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4182,26 +3777,15 @@
         <v>5</v>
       </c>
       <c r="G110" t="n">
-        <v>-181593.716780952</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>166</v>
-      </c>
-      <c r="J110" t="n">
-        <v>163</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4223,26 +3807,15 @@
         <v>35</v>
       </c>
       <c r="G111" t="n">
-        <v>-181558.716780952</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>163</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4264,26 +3837,15 @@
         <v>678.2388</v>
       </c>
       <c r="G112" t="n">
-        <v>-180880.477980952</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>166</v>
-      </c>
-      <c r="J112" t="n">
-        <v>163</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4305,26 +3867,15 @@
         <v>2988.7156</v>
       </c>
       <c r="G113" t="n">
-        <v>-177891.762380952</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="J113" t="n">
-        <v>163</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4346,24 +3897,15 @@
         <v>765.1563</v>
       </c>
       <c r="G114" t="n">
-        <v>-178656.918680952</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>163</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
